--- a/Data/09_Innvandrere og inkludering/Innvandrerbefolkningen/2022-tall/Andel flyktninger og arbeidsinnvandrere Telemark.xlsx
+++ b/Data/09_Innvandrere og inkludering/Innvandrerbefolkningen/2022-tall/Andel flyktninger og arbeidsinnvandrere Telemark.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/even_sannes_riiser_vtfk_no/Documents/Github/Telemark/Data/09_Innvandrere og inkludering/Innvandrerbefolkningen/2022-tall/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/09_Innvandrere og inkludering/Innvandrerbefolkningen/2022-tall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{753FE27C-9FB2-4DF6-ABB1-2EFB1312E0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D019593-A329-47AB-B9B8-33E8CDFA23D1}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{753FE27C-9FB2-4DF6-ABB1-2EFB1312E0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3828FB6B-9587-4ADE-999C-CCD451F7982F}"/>
   <bookViews>
-    <workbookView xWindow="19305" yWindow="30" windowWidth="38175" windowHeight="20925" xr2:uid="{8C669739-1C31-4D52-A85F-83456950D77F}"/>
+    <workbookView xWindow="19740" yWindow="0" windowWidth="37290" windowHeight="20985" activeTab="2" xr2:uid="{8C669739-1C31-4D52-A85F-83456950D77F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark2" sheetId="2" r:id="rId1"/>
-    <sheet name="Ark1" sheetId="1" r:id="rId2"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId1"/>
+    <sheet name="Ark4" sheetId="4" r:id="rId2"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId3"/>
+    <sheet name="Ark1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="31">
   <si>
     <t>Kommune</t>
   </si>
@@ -185,15 +187,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -522,7 +523,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C109A10-AE86-41FD-9E34-68DCB04410EE}" name="Pivottabell3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C109A10-AE86-41FD-9E34-68DCB04410EE}" name="Pivottabell3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:E23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -648,10 +649,34 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C4F939B-E982-49F3-937F-A6EFFF4CDA55}" name="Tabell1" displayName="Tabell1" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{1C4F939B-E982-49F3-937F-A6EFFF4CDA55}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4BD5FC93-562E-4785-AACE-EA2A55CA7C43}" name="Kommune"/>
+    <tableColumn id="2" xr3:uid="{591314EB-F430-4066-A553-8C43AC4B91C1}" name="Innvandringsgrunn"/>
+    <tableColumn id="3" xr3:uid="{C2926D43-8EED-4F91-A3D0-C0EC27380F9C}" name="Antall"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DA597170-4284-4D1E-A10E-15A97F906AAD}" name="Tabell2" displayName="Tabell2" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{DA597170-4284-4D1E-A10E-15A97F906AAD}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{59BA448F-7AEC-498C-B220-43819F92D8CB}" name="Kommune"/>
+    <tableColumn id="2" xr3:uid="{25B1956C-F2F4-4B21-8D4F-74B722E3B48B}" name="Innvandringsgrunn"/>
+    <tableColumn id="3" xr3:uid="{7B29BB24-70FA-471B-8A83-631ACB5894B5}" name="Antall"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -689,7 +714,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -795,7 +820,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -937,18 +962,128 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6420113-6267-4A66-8851-706D9ACA8E59}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8172E71-1257-4C06-833F-42B18F66DB6F}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D36545-8C14-4195-B3B0-59E6B1268B5B}">
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,16 +1134,16 @@
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>1226</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>217</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>573</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>2016</v>
       </c>
     </row>
@@ -1016,16 +1151,16 @@
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>411</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>89</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>137</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>637</v>
       </c>
     </row>
@@ -1033,16 +1168,16 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>106</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>32</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>22</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>160</v>
       </c>
     </row>
@@ -1050,16 +1185,16 @@
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>122</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>24</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>54</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9">
         <v>200</v>
       </c>
     </row>
@@ -1067,16 +1202,16 @@
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>1115</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>203</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>451</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10">
         <v>1769</v>
       </c>
     </row>
@@ -1084,16 +1219,16 @@
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>211</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>72</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>31</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>314</v>
       </c>
     </row>
@@ -1101,16 +1236,16 @@
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>1450</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>276</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>542</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
         <v>2268</v>
       </c>
     </row>
@@ -1118,16 +1253,16 @@
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>152</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>52</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>35</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13">
         <v>239</v>
       </c>
     </row>
@@ -1135,16 +1270,16 @@
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>747</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>152</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14">
         <v>303</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14">
         <v>1202</v>
       </c>
     </row>
@@ -1152,16 +1287,16 @@
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>1475</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>347</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15">
         <v>521</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15">
         <v>2343</v>
       </c>
     </row>
@@ -1169,16 +1304,16 @@
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>4423</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>703</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16">
         <v>1808</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16">
         <v>6934</v>
       </c>
     </row>
@@ -1186,16 +1321,16 @@
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>286</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>73</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17">
         <v>114</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17">
         <v>473</v>
       </c>
     </row>
@@ -1203,16 +1338,16 @@
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>162</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <v>28</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18">
         <v>57</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18">
         <v>247</v>
       </c>
     </row>
@@ -1220,16 +1355,16 @@
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>7761</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>1156</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19">
         <v>3857</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19">
         <v>12774</v>
       </c>
     </row>
@@ -1237,16 +1372,16 @@
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>643</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <v>115</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20">
         <v>204</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20">
         <v>962</v>
       </c>
     </row>
@@ -1254,16 +1389,16 @@
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>179</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>44</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21">
         <v>48</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21">
         <v>271</v>
       </c>
       <c r="I21" t="s">
@@ -1274,22 +1409,22 @@
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>374</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22">
         <v>96</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22">
         <v>132</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22">
         <v>602</v>
       </c>
       <c r="H22" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <f>GETPIVOTDATA("Antall",$A$4,"Innvandringsgrunn","Flyktninger og deres familieinnvandrede")/GETPIVOTDATA("Antall",$A$4,"Innvandringsgrunn","Alle")</f>
         <v>0.42647411601017127</v>
       </c>
@@ -1298,35 +1433,35 @@
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>20843</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>3679</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23">
         <v>8889</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23">
         <v>33411</v>
       </c>
       <c r="H23" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <f>GETPIVOTDATA("Antall",$A$4,"Innvandringsgrunn","Arbeidsinnvandrere")/GETPIVOTDATA("Antall",$A$4,"Innvandringsgrunn","Alle")</f>
         <v>0.17651009931391834</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1569,19 +1704,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1589,11 +1724,11 @@
       <c r="A46" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <f>C37/B37*100</f>
         <v>25.524475524475527</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <f>D37/B37*100</f>
         <v>39.86013986013986</v>
       </c>
@@ -1605,11 +1740,11 @@
       <c r="A47" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <f>C29/B29*100</f>
         <v>19.672131147540984</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <f>D29/B29*100</f>
         <v>44.26229508196721</v>
       </c>
@@ -1621,11 +1756,11 @@
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <f>C33/B33*100</f>
         <v>34.210526315789473</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <f>D33/B33*100</f>
         <v>23.026315789473685</v>
       </c>
@@ -1637,11 +1772,11 @@
       <c r="A49" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <f>C31/B31*100</f>
         <v>34.123222748815166</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <f>D31/B31*100</f>
         <v>14.691943127962084</v>
       </c>
@@ -1653,11 +1788,11 @@
       <c r="A50" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <f>C34/B34*100</f>
         <v>20.348058902275771</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <f>D34/B34*100</f>
         <v>40.562248995983936</v>
       </c>
@@ -1669,11 +1804,11 @@
       <c r="A51" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <f>C27/B27*100</f>
         <v>21.654501216545015</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <f>D27/B27*100</f>
         <v>33.333333333333329</v>
       </c>
@@ -1685,11 +1820,11 @@
       <c r="A52" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <f>C40/B40*100</f>
         <v>17.884914463452567</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <f>D40/B40*100</f>
         <v>31.726283048211506</v>
       </c>
@@ -1701,11 +1836,11 @@
       <c r="A53" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <f>C32/B32*100</f>
         <v>19.034482758620687</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <f>D32/B32*100</f>
         <v>37.379310344827587</v>
       </c>
@@ -1717,11 +1852,11 @@
       <c r="A54" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <f>C41/B41*100</f>
         <v>24.581005586592177</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <f>D41/B41*100</f>
         <v>26.815642458100559</v>
       </c>
@@ -1733,11 +1868,11 @@
       <c r="A55" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <f>C28/B28*100</f>
         <v>30.188679245283019</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <f>D28/B28*100</f>
         <v>20.754716981132077</v>
       </c>
@@ -1749,11 +1884,11 @@
       <c r="A56" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <f>C42/B42*100</f>
         <v>25.668449197860966</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <f>D42/B42*100</f>
         <v>35.294117647058826</v>
       </c>
@@ -1765,11 +1900,11 @@
       <c r="A57" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <f>C36/B36*100</f>
         <v>15.894189464164594</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <f>D36/B36*100</f>
         <v>40.877232647524302</v>
       </c>
@@ -1781,11 +1916,11 @@
       <c r="A58" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <f>C38/B38*100</f>
         <v>17.283950617283949</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <f>D38/B38*100</f>
         <v>35.185185185185183</v>
       </c>
@@ -1797,11 +1932,11 @@
       <c r="A59" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <f>C30/B30*100</f>
         <v>18.206278026905828</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <f>D30/B30*100</f>
         <v>40.448430493273541</v>
       </c>
@@ -1813,11 +1948,11 @@
       <c r="A60" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <f>C26/B26*100</f>
         <v>17.69983686786297</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <f>D26/B26*100</f>
         <v>46.737357259380097</v>
       </c>
@@ -1829,11 +1964,11 @@
       <c r="A61" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <f>C35/B35*100</f>
         <v>23.525423728813561</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <f>D35/B35*100</f>
         <v>35.322033898305079</v>
       </c>
@@ -1845,11 +1980,11 @@
       <c r="A62" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <f>C39/B39*100</f>
         <v>14.894987759309366</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <f>D39/B39*100</f>
         <v>49.697203968560757</v>
       </c>
@@ -1858,13 +1993,13 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1872,7 +2007,7 @@
       <c r="A66" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>17.69983686786297</v>
       </c>
       <c r="C66" t="s">
@@ -1883,7 +2018,7 @@
       <c r="A67" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>21.654501216545015</v>
       </c>
       <c r="C67" t="s">
@@ -1894,7 +2029,7 @@
       <c r="A68" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>30.188679245283019</v>
       </c>
       <c r="C68" t="s">
@@ -1905,7 +2040,7 @@
       <c r="A69" t="s">
         <v>19</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>19.672131147540984</v>
       </c>
       <c r="C69" t="s">
@@ -1916,7 +2051,7 @@
       <c r="A70" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>18.206278026905828</v>
       </c>
       <c r="C70" t="s">
@@ -1927,7 +2062,7 @@
       <c r="A71" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>34.123222748815166</v>
       </c>
       <c r="C71" t="s">
@@ -1938,7 +2073,7 @@
       <c r="A72" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>19.034482758620687</v>
       </c>
       <c r="C72" t="s">
@@ -1949,7 +2084,7 @@
       <c r="A73" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>34.210526315789473</v>
       </c>
       <c r="C73" t="s">
@@ -1960,7 +2095,7 @@
       <c r="A74" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>20.348058902275771</v>
       </c>
       <c r="C74" t="s">
@@ -1971,7 +2106,7 @@
       <c r="A75" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>23.525423728813561</v>
       </c>
       <c r="C75" t="s">
@@ -1982,7 +2117,7 @@
       <c r="A76" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>15.894189464164594</v>
       </c>
       <c r="C76" t="s">
@@ -1993,7 +2128,7 @@
       <c r="A77" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>25.524475524475527</v>
       </c>
       <c r="C77" t="s">
@@ -2004,7 +2139,7 @@
       <c r="A78" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="7">
         <v>17.283950617283949</v>
       </c>
       <c r="C78" t="s">
@@ -2015,7 +2150,7 @@
       <c r="A79" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>14.894987759309366</v>
       </c>
       <c r="C79" t="s">
@@ -2026,7 +2161,7 @@
       <c r="A80" t="s">
         <v>18</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="7">
         <v>17.884914463452567</v>
       </c>
       <c r="C80" t="s">
@@ -2037,7 +2172,7 @@
       <c r="A81" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>24.581005586592177</v>
       </c>
       <c r="C81" t="s">
@@ -2048,7 +2183,7 @@
       <c r="A82" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="7">
         <v>25.668449197860966</v>
       </c>
       <c r="C82" t="s">
@@ -2056,13 +2191,13 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2070,7 +2205,7 @@
       <c r="A85" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="7">
         <v>46.737357259380097</v>
       </c>
       <c r="C85" t="s">
@@ -2081,7 +2216,7 @@
       <c r="A86" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="7">
         <v>33.333333333333329</v>
       </c>
       <c r="C86" t="s">
@@ -2092,7 +2227,7 @@
       <c r="A87" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="7">
         <v>20.754716981132077</v>
       </c>
       <c r="C87" t="s">
@@ -2103,7 +2238,7 @@
       <c r="A88" t="s">
         <v>19</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="7">
         <v>44.26229508196721</v>
       </c>
       <c r="C88" t="s">
@@ -2114,7 +2249,7 @@
       <c r="A89" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="7">
         <v>40.448430493273541</v>
       </c>
       <c r="C89" t="s">
@@ -2125,7 +2260,7 @@
       <c r="A90" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="7">
         <v>14.691943127962084</v>
       </c>
       <c r="C90" t="s">
@@ -2136,7 +2271,7 @@
       <c r="A91" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="7">
         <v>37.379310344827587</v>
       </c>
       <c r="C91" t="s">
@@ -2147,7 +2282,7 @@
       <c r="A92" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="7">
         <v>23.026315789473685</v>
       </c>
       <c r="C92" t="s">
@@ -2158,7 +2293,7 @@
       <c r="A93" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="7">
         <v>40.562248995983936</v>
       </c>
       <c r="C93" t="s">
@@ -2169,7 +2304,7 @@
       <c r="A94" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="7">
         <v>35.322033898305079</v>
       </c>
       <c r="C94" t="s">
@@ -2180,7 +2315,7 @@
       <c r="A95" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="7">
         <v>40.877232647524302</v>
       </c>
       <c r="C95" t="s">
@@ -2191,7 +2326,7 @@
       <c r="A96" t="s">
         <v>12</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="7">
         <v>39.86013986013986</v>
       </c>
       <c r="C96" t="s">
@@ -2202,7 +2337,7 @@
       <c r="A97" t="s">
         <v>22</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="7">
         <v>35.185185185185183</v>
       </c>
       <c r="C97" t="s">
@@ -2213,7 +2348,7 @@
       <c r="A98" t="s">
         <v>17</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98" s="7">
         <v>49.697203968560757</v>
       </c>
       <c r="C98" t="s">
@@ -2224,7 +2359,7 @@
       <c r="A99" t="s">
         <v>18</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="7">
         <v>31.726283048211506</v>
       </c>
       <c r="C99" t="s">
@@ -2235,7 +2370,7 @@
       <c r="A100" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="7">
         <v>26.815642458100559</v>
       </c>
       <c r="C100" t="s">
@@ -2246,7 +2381,7 @@
       <c r="A101" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="7">
         <v>35.294117647058826</v>
       </c>
       <c r="C101" t="s">
@@ -2258,7 +2393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF668F20-E09D-45C9-B528-7FE001EDB971}">
   <dimension ref="A1:C52"/>
   <sheetViews>
